--- a/docs/odh/odh-RetirementDate.xlsx
+++ b/docs/odh/odh-RetirementDate.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="483">
   <si>
     <t>Path</t>
   </si>
@@ -227,7 +227,273 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -246,24 +512,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
+    <t>Observation.category.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -279,350 +531,13 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.category.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -798,6 +713,9 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -973,6 +891,10 @@
   </si>
   <si>
     <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>Date/Time this was made available</t>
@@ -1167,18 +1089,6 @@
   </si>
   <si>
     <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1762,7 +1672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP97"/>
+  <dimension ref="A1:AP86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1794,7 +1704,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2303,10 +2213,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2317,7 +2227,9 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2366,7 +2278,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2390,7 +2302,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2405,14 +2317,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2424,16 +2336,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2459,37 +2371,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2507,7 +2419,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2518,11 +2430,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2538,19 +2450,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2599,13 +2511,17 @@
       <c r="AD7" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2620,7 +2536,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2631,18 +2547,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2651,19 +2567,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2712,11 +2628,15 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2733,7 +2653,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2744,11 +2664,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2764,19 +2684,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2825,11 +2745,15 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2846,7 +2770,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2857,11 +2781,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2874,22 +2798,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2915,13 +2839,13 @@
         <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>45</v>
@@ -2938,11 +2862,15 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2959,7 +2887,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2970,7 +2898,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2993,18 +2921,18 @@
         <v>57</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -3028,13 +2956,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -3063,19 +2991,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -3083,41 +3011,41 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3164,15 +3092,11 @@
       <c r="AD12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3180,16 +3104,16 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -3200,7 +3124,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3208,7 +3132,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>56</v>
@@ -3217,24 +3141,26 @@
         <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3258,13 +3184,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3281,15 +3207,11 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3297,19 +3219,19 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3317,11 +3239,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3340,18 +3262,20 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3375,13 +3299,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3399,16 +3323,16 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>45</v>
@@ -3423,10 +3347,10 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3434,18 +3358,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3457,17 +3381,15 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3516,13 +3438,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3540,7 +3462,7 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3551,11 +3473,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3574,16 +3496,16 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3621,19 +3543,19 @@
         <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3657,7 +3579,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -3668,15 +3590,15 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>44</v>
@@ -3685,24 +3607,26 @@
         <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3738,26 +3662,20 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3771,10 +3689,10 @@
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3785,18 +3703,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3808,18 +3728,16 @@
         <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3878,19 +3796,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3898,18 +3816,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3918,21 +3836,19 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3979,11 +3895,15 @@
       <c r="AD19" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3991,16 +3911,16 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -4011,43 +3931,41 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4071,34 +3989,38 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE20" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4106,19 +4028,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -4126,7 +4048,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4146,29 +4068,29 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>45</v>
@@ -4186,13 +4108,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4209,15 +4131,11 @@
       <c r="AD21" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4231,13 +4149,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4245,7 +4163,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4265,18 +4183,20 @@
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4324,15 +4244,11 @@
       <c r="AD22" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4346,10 +4262,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4360,18 +4276,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4380,27 +4296,27 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>45</v>
@@ -4430,26 +4346,22 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4463,10 +4375,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4477,7 +4389,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4485,10 +4397,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4500,19 +4412,17 @@
         <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4549,14 +4459,16 @@
         <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
@@ -4576,10 +4488,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4590,17 +4502,15 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>56</v>
@@ -4615,16 +4525,20 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4689,10 +4603,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4703,7 +4617,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4723,19 +4637,23 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4782,15 +4700,11 @@
       <c r="AD26" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4804,10 +4718,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4818,18 +4732,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4838,21 +4752,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4876,38 +4790,34 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4915,27 +4825,27 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4955,29 +4865,25 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>45</v>
@@ -5018,11 +4924,15 @@
       <c r="AD28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5036,10 +4946,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5050,18 +4960,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -5070,19 +4980,19 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5120,22 +5030,26 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE29" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5149,10 +5063,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5163,7 +5077,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5171,10 +5085,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5186,24 +5100,26 @@
         <v>57</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5233,16 +5149,14 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
@@ -5262,10 +5176,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5276,15 +5190,17 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>56</v>
@@ -5299,18 +5215,16 @@
         <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5375,10 +5289,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5389,7 +5303,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5409,23 +5323,19 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5472,11 +5382,15 @@
       <c r="AD32" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5490,10 +5404,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5504,18 +5418,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5524,23 +5438,21 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5576,22 +5488,26 @@
         <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE33" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5605,10 +5521,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5619,15 +5535,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>56</v>
@@ -5642,24 +5558,26 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>45</v>
@@ -5677,13 +5595,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5712,27 +5630,27 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5752,18 +5670,20 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5811,15 +5731,11 @@
       <c r="AD35" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5833,10 +5749,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5847,18 +5763,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5867,27 +5783,27 @@
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>45</v>
@@ -5917,26 +5833,22 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5950,10 +5862,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5964,7 +5876,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5972,10 +5884,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5987,19 +5899,17 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6036,14 +5946,16 @@
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
@@ -6063,10 +5975,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6077,17 +5989,15 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>56</v>
@@ -6102,16 +6012,20 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6176,10 +6090,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6190,7 +6104,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6210,19 +6124,23 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6269,15 +6187,11 @@
       <c r="AD39" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6291,10 +6205,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6305,18 +6219,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6325,21 +6239,23 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6375,25 +6291,25 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
@@ -6402,19 +6318,19 @@
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6422,11 +6338,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6442,29 +6358,29 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>45</v>
@@ -6517,19 +6433,19 @@
         <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6541,14 +6457,14 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6560,18 +6476,20 @@
         <v>57</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6618,11 +6536,15 @@
       <c r="AD42" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6630,19 +6552,19 @@
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6650,7 +6572,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6673,24 +6595,24 @@
         <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>45</v>
@@ -6749,13 +6671,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6763,7 +6685,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6774,7 +6696,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6786,17 +6708,17 @@
         <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6856,19 +6778,19 @@
         <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6876,7 +6798,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6899,19 +6821,19 @@
         <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6965,33 +6887,33 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7002,7 +6924,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7011,22 +6933,22 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7051,13 +6973,11 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7074,28 +6994,32 @@
       <c r="AD46" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7106,15 +7030,15 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>56</v>
@@ -7126,22 +7050,20 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7166,13 +7088,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7189,15 +7111,11 @@
       <c r="AD47" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7205,31 +7123,31 @@
         <v>45</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7248,19 +7166,17 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7320,19 +7236,19 @@
         <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7340,11 +7256,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7360,23 +7276,21 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7400,13 +7314,11 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7424,7 +7336,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7439,27 +7351,27 @@
         <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7470,7 +7382,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7479,21 +7391,23 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7517,13 +7431,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7540,11 +7454,15 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7558,13 +7476,13 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -7572,7 +7490,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7583,7 +7501,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7592,21 +7510,21 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7653,11 +7571,15 @@
       <c r="AD51" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7665,27 +7587,27 @@
         <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7696,7 +7618,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7705,23 +7627,21 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7768,39 +7688,43 @@
       <c r="AD52" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE52" s="2"/>
+      <c r="AE52" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH52" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7823,19 +7747,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>181</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7860,11 +7784,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7882,31 +7808,31 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>142</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7917,11 +7843,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7940,18 +7866,16 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7975,13 +7899,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7998,11 +7922,15 @@
       <c r="AD54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE54" s="2"/>
+      <c r="AE54" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG54" s="2"/>
+      <c r="AG54" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8013,35 +7941,35 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>157</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8053,18 +7981,18 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8111,11 +8039,15 @@
       <c r="AD55" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8123,16 +8055,16 @@
         <v>45</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>360</v>
+        <v>157</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8143,39 +8075,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8201,11 +8133,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8223,13 +8157,13 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
@@ -8241,24 +8175,24 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8281,13 +8215,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>69</v>
+        <v>387</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>71</v>
+        <v>389</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8337,17 +8271,13 @@
       <c r="AD57" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE57" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE57" s="2"/>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
@@ -8359,10 +8289,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>73</v>
+        <v>392</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8373,18 +8303,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8396,17 +8326,15 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8443,28 +8371,24 @@
         <v>45</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE58" s="2"/>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>45</v>
@@ -8476,10 +8400,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8490,7 +8414,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8501,7 +8425,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8510,22 +8434,22 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>195</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8550,13 +8474,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8588,13 +8512,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>200</v>
+        <v>326</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8605,7 +8529,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8616,7 +8540,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8625,22 +8549,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>241</v>
+        <v>407</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>242</v>
+        <v>408</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>243</v>
+        <v>409</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8665,13 +8589,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8703,13 +8627,13 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8720,7 +8644,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8731,7 +8655,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8743,19 +8667,17 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8780,13 +8702,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8803,15 +8725,11 @@
       <c r="AD61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8825,10 +8743,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8839,7 +8757,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8850,7 +8768,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8862,17 +8780,15 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>384</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8920,15 +8836,11 @@
       <c r="AD62" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8939,24 +8851,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8976,21 +8888,23 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9038,42 +8952,42 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9084,7 +8998,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9096,20 +9010,16 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>402</v>
+        <v>153</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>403</v>
+        <v>154</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9157,19 +9067,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>401</v>
+        <v>156</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9178,10 +9088,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9192,18 +9102,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9215,15 +9125,17 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9272,13 +9184,13 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
@@ -9296,7 +9208,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9307,11 +9219,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>75</v>
+        <v>383</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9324,22 +9236,22 @@
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9389,7 +9301,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9413,7 +9325,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9424,47 +9336,49 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>147</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>45</v>
@@ -9482,13 +9396,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9505,15 +9419,11 @@
       <c r="AD67" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE67" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="AE67" s="2"/>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9527,10 +9437,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>142</v>
+        <v>442</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9541,7 +9451,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9549,7 +9459,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>56</v>
@@ -9564,13 +9474,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9626,7 +9536,7 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -9638,10 +9548,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9652,7 +9562,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9663,7 +9573,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9672,19 +9582,23 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9731,16 +9645,20 @@
       <c r="AD69" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE69" s="2"/>
+      <c r="AE69" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG69" s="2"/>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH69" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9749,10 +9667,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9763,7 +9681,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9786,20 +9704,16 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>428</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9823,13 +9737,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9846,11 +9760,15 @@
       <c r="AD70" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE70" s="2"/>
+      <c r="AE70" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG70" s="2"/>
+      <c r="AG70" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9861,13 +9779,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>352</v>
+        <v>157</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9878,11 +9796,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9901,20 +9819,18 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>437</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>438</v>
+        <v>159</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -9938,13 +9854,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -9961,11 +9877,15 @@
       <c r="AD71" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE71" s="2"/>
+      <c r="AE71" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG71" s="2"/>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
       </c>
@@ -9976,13 +9896,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>352</v>
+        <v>157</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -9993,41 +9913,41 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>444</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10074,11 +9994,15 @@
       <c r="AD72" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE72" s="2"/>
+      <c r="AE72" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG72" s="2"/>
+      <c r="AG72" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10095,7 +10019,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>448</v>
+        <v>99</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10106,7 +10030,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10114,7 +10038,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>56</v>
@@ -10126,19 +10050,21 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10162,13 +10088,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10200,16 +10126,16 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>421</v>
+        <v>229</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>452</v>
+        <v>230</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>45</v>
@@ -10217,7 +10143,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10228,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10240,19 +10166,19 @@
         <v>57</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>457</v>
+        <v>302</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10300,43 +10226,39 @@
       <c r="AD74" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE74" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="AE74" s="2"/>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>458</v>
+        <v>45</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>459</v>
+        <v>306</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>460</v>
+        <v>307</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10359,16 +10281,20 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>70</v>
+        <v>468</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10392,13 +10318,11 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10415,17 +10339,13 @@
       <c r="AD75" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE75" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE75" s="2"/>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>45</v>
@@ -10437,10 +10357,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10451,18 +10371,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -10474,18 +10394,20 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10509,13 +10431,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10532,15 +10454,11 @@
       <c r="AD76" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE76" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE76" s="2"/>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG76" s="2"/>
       <c r="AH76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10551,28 +10469,28 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10585,24 +10503,26 @@
         <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>147</v>
+        <v>473</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10649,15 +10569,11 @@
       <c r="AD77" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE77" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="AE77" s="2"/>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG77" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG77" s="2"/>
       <c r="AH77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10671,10 +10587,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>142</v>
+        <v>379</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10685,7 +10601,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10708,26 +10624,22 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>465</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>469</v>
+        <v>45</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>45</v>
@@ -10745,13 +10657,13 @@
         <v>45</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>471</v>
+        <v>45</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
@@ -10768,11 +10680,15 @@
       <c r="AD78" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE78" s="2"/>
+      <c r="AE78" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG78" s="2"/>
+      <c r="AG78" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10786,10 +10702,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>472</v>
+        <v>157</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -10800,18 +10716,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
@@ -10823,15 +10739,17 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>474</v>
+        <v>102</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>475</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -10879,11 +10797,15 @@
       <c r="AD79" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE79" s="2"/>
+      <c r="AE79" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG79" s="2"/>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
@@ -10900,7 +10822,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>477</v>
+        <v>157</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -10911,43 +10833,41 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>479</v>
+        <v>108</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -10995,7 +10915,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11007,7 +10927,7 @@
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>458</v>
+        <v>45</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>45</v>
@@ -11016,10 +10936,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>483</v>
+        <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>484</v>
+        <v>99</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11030,7 +10950,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11053,13 +10973,13 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>69</v>
+        <v>387</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>71</v>
+        <v>389</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11109,17 +11029,13 @@
       <c r="AD81" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE81" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE81" s="2"/>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG81" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG81" s="2"/>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>45</v>
@@ -11131,10 +11047,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>73</v>
+        <v>392</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11145,18 +11061,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11168,17 +11084,15 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11226,17 +11140,13 @@
       <c r="AD82" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE82" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE82" s="2"/>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG82" s="2"/>
       <c r="AH82" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>45</v>
@@ -11248,10 +11158,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11262,41 +11172,43 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>147</v>
+        <v>398</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11320,13 +11232,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11343,15 +11255,11 @@
       <c r="AD83" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE83" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="AE83" s="2"/>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG83" s="2"/>
       <c r="AH83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11362,13 +11270,13 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>142</v>
+        <v>326</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11379,7 +11287,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11387,10 +11295,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>45</v>
@@ -11399,20 +11307,22 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>489</v>
+        <v>407</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="N84" t="s" s="2">
-        <v>251</v>
+        <v>410</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11437,13 +11347,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -11475,16 +11385,16 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>256</v>
+        <v>405</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>45</v>
@@ -11492,7 +11402,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11512,22 +11422,20 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11590,24 +11498,24 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>496</v>
+        <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11630,20 +11538,16 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>498</v>
+        <v>420</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -11667,11 +11571,13 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X86" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y86" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -11694,7 +11600,7 @@
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>45</v>
@@ -11706,1275 +11612,20 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE87" s="2"/>
-      <c r="AF87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG87" s="2"/>
-      <c r="AH87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE88" s="2"/>
-      <c r="AF88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG88" s="2"/>
-      <c r="AH88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE92" s="2"/>
-      <c r="AF92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG92" s="2"/>
-      <c r="AH92" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE93" s="2"/>
-      <c r="AF93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG93" s="2"/>
-      <c r="AH93" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE94" s="2"/>
-      <c r="AF94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG94" s="2"/>
-      <c r="AH94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE95" s="2"/>
-      <c r="AF95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG95" s="2"/>
-      <c r="AH95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE96" s="2"/>
-      <c r="AF96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG96" s="2"/>
-      <c r="AH96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE97" s="2"/>
-      <c r="AF97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG97" s="2"/>
-      <c r="AH97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO97" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO97">
+  <autoFilter ref="A1:AO86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12984,7 +11635,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/odh-RetirementDate.xlsx
+++ b/docs/odh/odh-RetirementDate.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="521">
   <si>
     <t>Path</t>
   </si>
@@ -159,9 +159,7 @@
     <t>odh-RetirementDate</t>
   </si>
   <si>
-    <t>A self-reported date that a person considers themselves to have ‘retired’.
-A person can be both retired and employed (an Employment Status); most often, a person would be retired from one job and employed in another job. A person also can have more than one retirement date; for example, a person could retire from military service, then later retire from a civilian job. Multiple retirement dates should be recorded using multiple FHIR resources.
-Outside of ODH, a characterization of the employment arrangement between an employer and a person (one job) has sometimes been referred to as a person's 'employment status' and might include values such as 'retired.' However, in ODH, Employment Status is used to characterize a person's relationship to working (e.g., employed, unemployed) and Retirement Date is used to characterize whether or not a person self-identifies as retired. For example, a person could be 'employed' (Employment Status) and have retired from a previous job (recorded at the Person level as a Retirement Date).</t>
+    <t>A self-reported date that a person considers themselves to have ‘retired’. A person can be both retired and employed (an Employment Status); most often, a person would be retired from one job and employed in another job. A person also can have more than one retirement date; for example, a person could retire from military service, then later retire from a civilian job. Multiple retirement dates should be recorded using multiple instance of this profile. Outside of ODH, a characterization of the employment arrangement between an employer and a person (one job) has sometimes been referred to as a person’s ‘employment status’ and might include values such as ‘retired.’ However, in ODH, Employment Status is used to characterize a person’s relationship to working (e.g., employed, unemployed) and Retirement Date is used to characterize whether or not a person self-identifies as retired. For example, a person could be ‘employed’ (Employment Status) and have retired from a previous job (recorded at the Person level as a Retirement Date).</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -227,13 +225,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.implicitRules</t>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -263,9 +410,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -334,24 +478,40 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>observationpartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationPartOf-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>observationderivedfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationDerivedFrom-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -398,7 +558,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -496,46 +656,10 @@
     <t>Observation.category.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.category.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Observation.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -715,9 +839,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
@@ -790,7 +911,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -827,7 +948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -893,10 +1014,6 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -918,7 +1035,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -1076,7 +1193,7 @@
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ body-site-instance](extension-body-site-instance.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1149,7 +1266,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1406,7 +1523,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1466,7 +1583,7 @@
   </si>
   <si>
     <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}SampledData {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1672,7 +1789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP86"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,7 +1799,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1704,8 +1821,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -2213,10 +2330,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2227,9 +2344,7 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2278,7 +2393,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2302,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2317,14 +2432,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2336,16 +2451,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2371,37 +2486,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2419,7 +2534,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2430,11 +2545,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2455,15 +2572,11 @@
       <c r="J7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>45</v>
@@ -2512,16 +2625,16 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2536,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2547,18 +2660,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2567,19 +2680,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2628,15 +2741,11 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2653,7 +2762,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2664,18 +2773,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>45</v>
@@ -2684,19 +2793,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2745,15 +2854,11 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2770,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2781,11 +2886,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2798,22 +2903,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2862,15 +2967,11 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2887,7 +2988,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2898,7 +2999,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2921,18 +3022,18 @@
         <v>57</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2956,13 +3057,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2991,19 +3092,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -3011,11 +3112,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3034,18 +3135,18 @@
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3069,13 +3170,13 @@
         <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>45</v>
@@ -3104,16 +3205,16 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -3124,7 +3225,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3132,7 +3233,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>56</v>
@@ -3147,20 +3248,18 @@
         <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3184,13 +3283,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3207,11 +3306,15 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3219,19 +3322,19 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3239,7 +3342,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3262,20 +3365,18 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3299,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3323,13 +3424,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3347,10 +3448,10 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3358,11 +3459,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3381,15 +3482,17 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3438,7 +3541,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3447,7 +3550,7 @@
         <v>56</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>45</v>
@@ -3462,7 +3565,7 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3473,11 +3576,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3496,16 +3599,16 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3543,19 +3646,19 @@
         <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3579,7 +3682,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -3590,15 +3693,15 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>44</v>
@@ -3610,23 +3713,21 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3662,20 +3763,24 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AE17" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3689,10 +3794,10 @@
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3703,20 +3808,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3725,16 +3830,14 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3784,11 +3887,15 @@
       <c r="AD18" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3816,9 +3923,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3827,7 +3936,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3841,11 +3950,9 @@
       <c r="J19" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="K19" s="2"/>
+      <c r="L19" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3896,13 +4003,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3920,7 +4027,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3931,11 +4038,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3954,17 +4063,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4001,19 +4106,19 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4037,7 +4142,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4048,49 +4153,47 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>45</v>
@@ -4131,11 +4234,15 @@
       <c r="AD21" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4149,10 +4256,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4163,7 +4270,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4174,7 +4281,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4186,18 +4293,18 @@
         <v>57</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4256,19 +4363,19 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4276,18 +4383,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4299,24 +4406,24 @@
         <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>45</v>
@@ -4369,16 +4476,16 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4389,7 +4496,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4397,7 +4504,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>56</v>
@@ -4406,23 +4513,25 @@
         <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4447,13 +4556,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4482,19 +4591,19 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4502,7 +4611,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4522,22 +4631,22 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4562,13 +4671,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4585,11 +4694,15 @@
       <c r="AD25" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4603,13 +4716,13 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4617,7 +4730,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4637,23 +4750,19 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4700,11 +4809,15 @@
       <c r="AD26" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4718,10 +4831,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4732,18 +4845,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4752,21 +4865,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4790,34 +4903,38 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4825,27 +4942,27 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4853,10 +4970,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4865,19 +4982,23 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4913,26 +5034,20 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AE28" s="2"/>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG28" s="2"/>
       <c r="AH28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4946,10 +5061,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4960,18 +5075,20 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="C29" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -4980,20 +5097,18 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5030,26 +5145,22 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5066,7 +5177,7 @@
         <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5077,7 +5188,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5085,11 +5196,11 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5097,23 +5208,19 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5149,20 +5256,26 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AE30" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5176,10 +5289,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5190,20 +5303,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5212,18 +5323,20 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5260,22 +5373,26 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE31" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG31" s="2"/>
+      <c r="AG31" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5292,7 +5409,7 @@
         <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5303,7 +5420,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5323,25 +5440,29 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>45</v>
@@ -5382,15 +5503,11 @@
       <c r="AD32" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE32" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="AE32" s="2"/>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5404,10 +5521,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5418,18 +5535,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5438,19 +5555,19 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5488,26 +5605,22 @@
         <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5521,10 +5634,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5535,7 +5648,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5558,26 +5671,24 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>45</v>
@@ -5636,10 +5747,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5650,7 +5761,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5673,18 +5784,18 @@
         <v>57</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5749,10 +5860,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5763,7 +5874,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5786,24 +5897,26 @@
         <v>57</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>45</v>
@@ -5862,10 +5975,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5876,7 +5989,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5899,17 +6012,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5975,10 +6090,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5989,15 +6104,15 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>56</v>
@@ -6012,19 +6127,17 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6049,13 +6162,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6084,27 +6197,27 @@
         <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6124,23 +6237,19 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6187,11 +6296,15 @@
       <c r="AD39" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6205,10 +6318,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6219,18 +6332,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6239,23 +6352,21 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6291,25 +6402,25 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
@@ -6318,19 +6429,19 @@
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6338,18 +6449,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6358,22 +6469,22 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6410,16 +6521,14 @@
         <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
@@ -6433,19 +6542,19 @@
         <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6453,18 +6562,20 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C42" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6476,20 +6587,16 @@
         <v>57</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6536,15 +6643,11 @@
       <c r="AD42" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE42" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG42" s="2"/>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6552,19 +6655,19 @@
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6572,7 +6675,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6592,20 +6695,18 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6653,11 +6754,15 @@
       <c r="AD43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6671,13 +6776,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6685,11 +6790,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6705,21 +6810,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6755,22 +6860,26 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE44" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6778,19 +6887,19 @@
         <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6798,7 +6907,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6821,26 +6930,26 @@
         <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>45</v>
@@ -6887,33 +6996,33 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6924,7 +7033,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6933,23 +7042,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6973,11 +7080,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -6994,32 +7103,28 @@
       <c r="AD46" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7030,11 +7135,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7050,27 +7155,27 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>320</v>
+        <v>233</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>45</v>
@@ -7088,13 +7193,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7126,24 +7231,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7163,20 +7268,20 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>331</v>
+        <v>241</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7236,16 +7341,16 @@
         <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7256,7 +7361,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7267,7 +7372,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7276,21 +7381,23 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7314,11 +7421,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7335,15 +7444,11 @@
       <c r="AD49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7354,24 +7459,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7382,7 +7487,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7391,22 +7496,22 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7431,13 +7536,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7454,15 +7559,11 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7476,10 +7577,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7490,7 +7591,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7498,10 +7599,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7510,21 +7611,23 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7572,7 +7675,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7587,38 +7690,38 @@
         <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7630,18 +7733,20 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7688,15 +7793,11 @@
       <c r="AD52" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7704,31 +7805,31 @@
         <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7744,22 +7845,22 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7808,34 +7909,34 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -7843,7 +7944,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7863,18 +7964,20 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7922,15 +8025,11 @@
       <c r="AD54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE54" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7944,13 +8043,13 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -7958,11 +8057,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7978,21 +8077,21 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8039,15 +8138,11 @@
       <c r="AD55" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE55" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="AE55" s="2"/>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG55" s="2"/>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8055,19 +8150,19 @@
         <v>45</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>157</v>
+        <v>333</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -8075,41 +8170,43 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8156,43 +8253,39 @@
       <c r="AD56" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8203,7 +8296,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8215,16 +8308,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>387</v>
+        <v>193</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8248,13 +8345,11 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8271,28 +8366,32 @@
       <c r="AD57" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH57" t="s" s="2">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8303,11 +8402,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8326,16 +8425,18 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>387</v>
+        <v>193</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8359,13 +8460,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8388,7 +8489,7 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>45</v>
@@ -8397,24 +8498,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8437,19 +8538,17 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8474,13 +8573,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8509,16 +8608,16 @@
         <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8529,7 +8628,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8540,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8552,20 +8651,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8589,13 +8686,11 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8612,11 +8707,15 @@
       <c r="AD60" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG60" s="2"/>
+      <c r="AG60" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8627,24 +8726,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8655,7 +8754,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8667,17 +8766,19 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>414</v>
+        <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8702,13 +8803,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8725,11 +8826,15 @@
       <c r="AD61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8743,10 +8848,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8757,7 +8862,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8780,15 +8885,17 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>153</v>
+        <v>392</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8851,24 +8958,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8888,23 +8995,21 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8952,42 +9057,42 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8998,7 +9103,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9010,16 +9115,20 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>410</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9067,19 +9176,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9088,10 +9197,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>157</v>
+        <v>417</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9102,18 +9211,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9125,17 +9234,15 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9184,13 +9291,13 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
@@ -9208,7 +9315,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9219,11 +9326,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9236,22 +9343,22 @@
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9301,7 +9408,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9325,7 +9432,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9336,49 +9443,47 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>159</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>45</v>
@@ -9396,13 +9501,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9419,11 +9524,15 @@
       <c r="AD67" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9437,10 +9546,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>442</v>
+        <v>145</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9451,7 +9560,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9459,7 +9568,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>56</v>
@@ -9474,13 +9583,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9536,7 +9645,7 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -9548,10 +9657,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9562,7 +9671,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9573,7 +9682,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9582,23 +9691,19 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9645,20 +9750,16 @@
       <c r="AD69" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE69" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="AE69" s="2"/>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9667,10 +9768,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9681,7 +9782,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9704,16 +9805,20 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>436</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9737,13 +9842,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9760,15 +9865,11 @@
       <c r="AD70" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE70" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="AE70" s="2"/>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9779,13 +9880,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9796,11 +9897,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9819,18 +9920,20 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>445</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -9854,13 +9957,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -9877,15 +9980,11 @@
       <c r="AD71" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE71" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="AE71" s="2"/>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG71" s="2"/>
       <c r="AH71" t="s" s="2">
         <v>45</v>
       </c>
@@ -9896,13 +9995,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -9913,41 +10012,41 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>453</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -9994,15 +10093,11 @@
       <c r="AD72" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE72" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="AE72" s="2"/>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG72" s="2"/>
       <c r="AH72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10019,7 +10114,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>99</v>
+        <v>456</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10030,7 +10125,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10038,7 +10133,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>56</v>
@@ -10050,21 +10145,19 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10088,13 +10181,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10126,16 +10219,16 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>229</v>
+        <v>429</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>45</v>
@@ -10143,7 +10236,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10154,7 +10247,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10166,19 +10259,19 @@
         <v>57</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10226,39 +10319,43 @@
       <c r="AD74" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE74" s="2"/>
+      <c r="AE74" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG74" s="2"/>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>466</v>
+        <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>306</v>
+        <v>467</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>307</v>
+        <v>468</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10281,20 +10378,16 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10318,11 +10411,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10339,13 +10434,17 @@
       <c r="AD75" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE75" s="2"/>
+      <c r="AE75" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG75" s="2"/>
+      <c r="AG75" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH75" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>45</v>
@@ -10357,10 +10456,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10375,14 +10474,14 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -10394,20 +10493,18 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10431,13 +10528,13 @@
         <v>45</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>45</v>
@@ -10454,11 +10551,15 @@
       <c r="AD76" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE76" s="2"/>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG76" s="2"/>
+      <c r="AG76" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10469,28 +10570,28 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>326</v>
+        <v>73</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10503,26 +10604,24 @@
         <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>473</v>
+        <v>159</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10569,11 +10668,15 @@
       <c r="AD77" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE77" s="2"/>
+      <c r="AE77" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG77" s="2"/>
+      <c r="AG77" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10587,10 +10690,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10601,7 +10704,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10624,22 +10727,26 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>473</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>45</v>
@@ -10657,13 +10764,13 @@
         <v>45</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
@@ -10680,15 +10787,11 @@
       <c r="AD78" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE78" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="AE78" s="2"/>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG78" s="2"/>
       <c r="AH78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10702,10 +10805,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>157</v>
+        <v>480</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -10716,18 +10819,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
@@ -10739,17 +10842,15 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>102</v>
+        <v>482</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>483</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -10797,15 +10898,11 @@
       <c r="AD79" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE79" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="AE79" s="2"/>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG79" s="2"/>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
@@ -10822,7 +10919,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>157</v>
+        <v>485</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -10833,41 +10930,43 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>108</v>
+        <v>487</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>384</v>
+        <v>488</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -10915,7 +11014,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -10927,7 +11026,7 @@
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>45</v>
@@ -10936,10 +11035,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>99</v>
+        <v>492</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -10950,7 +11049,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10973,13 +11072,13 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>387</v>
+        <v>69</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>388</v>
+        <v>70</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>389</v>
+        <v>71</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11029,13 +11128,17 @@
       <c r="AD81" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE81" s="2"/>
+      <c r="AE81" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG81" s="2"/>
+      <c r="AG81" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH81" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>45</v>
@@ -11047,10 +11150,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>392</v>
+        <v>73</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11061,18 +11164,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11084,15 +11187,17 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11140,13 +11245,17 @@
       <c r="AD82" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE82" s="2"/>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG82" s="2"/>
+      <c r="AG82" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH82" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>45</v>
@@ -11158,10 +11267,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11172,43 +11281,41 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>398</v>
+        <v>159</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11232,13 +11339,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11255,11 +11362,15 @@
       <c r="AD83" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE83" s="2"/>
+      <c r="AE83" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG83" s="2"/>
+      <c r="AG83" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11270,13 +11381,13 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>326</v>
+        <v>145</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11287,7 +11398,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11295,10 +11406,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>45</v>
@@ -11307,22 +11418,20 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>407</v>
+        <v>497</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>410</v>
+        <v>263</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11347,13 +11456,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>411</v>
+        <v>264</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>412</v>
+        <v>265</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -11385,16 +11494,16 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>404</v>
+        <v>499</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>405</v>
+        <v>268</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>45</v>
@@ -11402,7 +11511,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11422,20 +11531,22 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>414</v>
+        <v>501</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>415</v>
+        <v>502</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11498,24 +11609,24 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>45</v>
+        <v>504</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11538,16 +11649,20 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -11571,13 +11686,11 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X86" s="2"/>
       <c r="Y86" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -11600,7 +11713,7 @@
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>45</v>
@@ -11612,20 +11725,1275 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE87" s="2"/>
+      <c r="AF87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG87" s="2"/>
+      <c r="AH87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE88" s="2"/>
+      <c r="AF88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG88" s="2"/>
+      <c r="AH88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AN86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO86" t="s" s="2">
+      <c r="M91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE92" s="2"/>
+      <c r="AF92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG92" s="2"/>
+      <c r="AH92" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE93" s="2"/>
+      <c r="AF93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG93" s="2"/>
+      <c r="AH93" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE94" s="2"/>
+      <c r="AF94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG94" s="2"/>
+      <c r="AH94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE95" s="2"/>
+      <c r="AF95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG95" s="2"/>
+      <c r="AH95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE96" s="2"/>
+      <c r="AF96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG96" s="2"/>
+      <c r="AH96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE97" s="2"/>
+      <c r="AF97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG97" s="2"/>
+      <c r="AH97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO86">
+  <autoFilter ref="A1:AO97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11635,7 +13003,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/odh-RetirementDate.xlsx
+++ b/docs/odh/odh-RetirementDate.xlsx
@@ -395,7 +395,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure)
 </t>
   </si>
   <si>
@@ -837,7 +837,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -868,7 +868,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DomainResource)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -891,7 +891,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1197,7 +1197,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1225,7 +1225,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
 </t>
   </si>
   <si>
@@ -1447,7 +1447,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media|http://hl7.org/fhir/us/odh/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1517,7 +1517,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SampledData}timedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>

--- a/docs/odh/odh-RetirementDate.xlsx
+++ b/docs/odh/odh-RetirementDate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="502">
   <si>
     <t>Path</t>
   </si>
@@ -613,7 +613,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1152,7 +1152,10 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1517,7 +1520,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-SampledData}timedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1760,7 +1763,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -7723,9 +7726,11 @@
       <c r="W51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="X51" s="2"/>
+      <c r="X51" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7761,24 +7766,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7804,16 +7809,16 @@
         <v>151</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7841,10 +7846,10 @@
         <v>240</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7862,7 +7867,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7883,10 +7888,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7897,7 +7902,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7920,16 +7925,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7979,7 +7984,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7997,24 +8002,24 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8037,16 +8042,16 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8096,7 +8101,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8114,24 +8119,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8154,19 +8159,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8215,7 +8220,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8227,7 +8232,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8236,10 +8241,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8250,7 +8255,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8365,7 +8370,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8482,11 +8487,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8508,10 +8513,10 @@
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>103</v>
@@ -8566,7 +8571,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8601,7 +8606,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8624,13 +8629,13 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8681,7 +8686,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8690,7 +8695,7 @@
         <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>45</v>
@@ -8702,10 +8707,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8716,7 +8721,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8739,13 +8744,13 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8796,7 +8801,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8805,7 +8810,7 @@
         <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>45</v>
@@ -8817,10 +8822,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8831,7 +8836,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8857,16 +8862,16 @@
         <v>151</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8894,10 +8899,10 @@
         <v>336</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8915,7 +8920,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8933,10 +8938,10 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>351</v>
@@ -8950,7 +8955,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8976,16 +8981,16 @@
         <v>151</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9013,10 +9018,10 @@
         <v>336</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9034,7 +9039,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9052,10 +9057,10 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>351</v>
@@ -9069,7 +9074,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9092,17 +9097,17 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9151,7 +9156,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9175,7 +9180,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9186,7 +9191,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9212,10 +9217,10 @@
         <v>161</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9266,7 +9271,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9287,10 +9292,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9301,7 +9306,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9324,16 +9329,16 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9383,7 +9388,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9404,10 +9409,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9418,7 +9423,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9441,16 +9446,16 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9500,7 +9505,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9521,10 +9526,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9535,7 +9540,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9558,19 +9563,19 @@
         <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9619,7 +9624,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9631,7 +9636,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9640,10 +9645,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9654,7 +9659,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9769,7 +9774,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9886,11 +9891,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9912,10 +9917,10 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>103</v>
@@ -9970,7 +9975,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10005,7 +10010,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10031,13 +10036,13 @@
         <v>151</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>239</v>
@@ -10089,7 +10094,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>55</v>
@@ -10107,7 +10112,7 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>245</v>
@@ -10124,7 +10129,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10147,16 +10152,16 @@
         <v>56</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>322</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>324</v>
@@ -10208,7 +10213,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10226,7 +10231,7 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>328</v>
@@ -10243,7 +10248,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10269,13 +10274,13 @@
         <v>151</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>335</v>
@@ -10327,7 +10332,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10362,7 +10367,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10446,7 +10451,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10481,7 +10486,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10504,19 +10509,19 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10565,7 +10570,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10586,10 +10591,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10600,7 +10605,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10715,7 +10720,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10832,11 +10837,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10858,10 +10863,10 @@
         <v>100</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>103</v>
@@ -10916,7 +10921,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10951,7 +10956,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10974,13 +10979,13 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11031,7 +11036,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11040,7 +11045,7 @@
         <v>55</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>45</v>
@@ -11052,10 +11057,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11066,7 +11071,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11089,13 +11094,13 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11146,7 +11151,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11155,7 +11160,7 @@
         <v>55</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>45</v>
@@ -11167,10 +11172,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11181,7 +11186,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11207,16 +11212,16 @@
         <v>151</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11244,10 +11249,10 @@
         <v>336</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11265,7 +11270,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11283,10 +11288,10 @@
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>351</v>
@@ -11300,7 +11305,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11326,16 +11331,16 @@
         <v>151</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11363,10 +11368,10 @@
         <v>336</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11384,7 +11389,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11402,10 +11407,10 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>351</v>
@@ -11419,7 +11424,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11442,17 +11447,17 @@
         <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11501,7 +11506,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11525,7 +11530,7 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11536,7 +11541,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11562,10 +11567,10 @@
         <v>161</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11616,7 +11621,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11637,10 +11642,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
